--- a/기획/테이블/아이템/아이템 데이터 테이블.xlsx
+++ b/기획/테이블/아이템/아이템 데이터 테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unreal\UnrealProject\기획\테이블\아이템\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4471DA-2FC5-48F2-8B6A-09E1195F3E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807EF920-7A2B-4C30-BEB7-B742AD45272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="2625" windowWidth="20220" windowHeight="11295" xr2:uid="{AB3F1193-057C-4673-84EB-15D7639999D5}"/>
+    <workbookView xWindow="8100" yWindow="2160" windowWidth="20220" windowHeight="11295" xr2:uid="{AB3F1193-057C-4673-84EB-15D7639999D5}"/>
   </bookViews>
   <sheets>
     <sheet name="아이템 테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,10 @@
   </si>
   <si>
     <t>frequencyType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>canThrowAway</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -437,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B5A3A4B-D7E8-47EF-A79A-EAFDC5350704}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -449,9 +453,10 @@
     <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -467,157 +472,399 @@
       <c r="F1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>3333</v>
+        <v>5000</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>200</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>3334</v>
+        <v>5001</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>200</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3335</v>
+        <v>5002</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>300</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3336</v>
+        <v>5003</v>
       </c>
       <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>500</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>10000</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>10001</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>10002</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>10003</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>600</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>15000</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>800</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>15001</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>17500</v>
+      </c>
+      <c r="B12">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>3337</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>3338</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3339</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3340</v>
-      </c>
-      <c r="B9">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>17501</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3341</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>3342</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>3343</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>3344</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>3345</v>
+        <v>20000</v>
       </c>
       <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>3346</v>
+        <v>20001</v>
       </c>
       <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>3347</v>
+        <v>20002</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>3348</v>
+        <v>20003</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>3349</v>
+        <v>20004</v>
       </c>
       <c r="B18">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>3350</v>
-      </c>
-      <c r="B19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>3351</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
